--- a/Newdata.xlsx
+++ b/Newdata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,9 +15,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
+  <si>
+    <t>Su che aa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +62,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +356,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Newdata.xlsx
+++ b/Newdata.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
   <si>
     <t>Su che aa</t>
+  </si>
+  <si>
+    <t>aa na javu joiye</t>
   </si>
 </sst>
 </file>
@@ -357,85 +360,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:G19"/>
+  <dimension ref="D2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>0</v>
       </c>

--- a/Newdata.xlsx
+++ b/Newdata.xlsx
@@ -28,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,13 +36,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +377,7 @@
   <dimension ref="D2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,42 +388,42 @@
       </c>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
@@ -417,47 +431,47 @@
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
